--- a/第2次 第六章/T3/2-data.xlsx
+++ b/第2次 第六章/T3/2-data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文档\大三上\数值代数\第2次 第六章\T3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD5D67D-8019-40C4-9A57-089461F94C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A844634-995F-4BA3-840E-8E61463F9DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Size</t>
   </si>
@@ -37,6 +37,10 @@
   </si>
   <si>
     <t>SOR</t>
+  </si>
+  <si>
+    <t>2.5*sqrt(GS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1796,6 +1800,683 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>矩阵尺寸</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>—</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>迭代步数关系</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t>图</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t>（关系对比）</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB91-4379-B906-FD0E8FE1D1E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5*sqrt(GS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>11.989578808281799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.794494717703369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.622776601683796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.4578098794425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.417409503007832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.441028637222537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.458029639782254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.547532151500448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.651513899116793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101.7656621852381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111.94306588619055</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>122.11674741819813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132.33480267866045</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>142.56577429383253</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>152.80706789936124</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>163.07590257300433</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>173.34935823359714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>183.64367672206956</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>193.95553614166315</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>204.28228019091623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FB91-4379-B906-FD0E8FE1D1E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1768354655"/>
+        <c:axId val="1768193647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1768354655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1768193647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1768193647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1768354655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1876,6 +2557,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2908,17 +3629,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>654050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
@@ -2948,13 +4185,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2979,6 +4216,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F5412C-9F36-48CA-829F-92619DA71A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3250,15 +4525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3271,8 +4546,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -3285,8 +4563,12 @@
       <c r="D2" s="1">
         <v>11</v>
       </c>
+      <c r="E2" s="1">
+        <f>2.5*SQRT(C2)</f>
+        <v>11.989578808281799</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -3299,8 +4581,12 @@
       <c r="D3" s="1">
         <v>22</v>
       </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E21" si="0">2.5*SQRT(C3)</f>
+        <v>21.794494717703369</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -3313,8 +4599,12 @@
       <c r="D4" s="1">
         <v>32</v>
       </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>31.622776601683796</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -3327,8 +4617,12 @@
       <c r="D5" s="1">
         <v>43</v>
       </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>41.4578098794425</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -3341,8 +4635,12 @@
       <c r="D6" s="1">
         <v>53</v>
       </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>51.417409503007832</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>18</v>
       </c>
@@ -3355,8 +4653,12 @@
       <c r="D7" s="1">
         <v>64</v>
       </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>61.441028637222537</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -3369,8 +4671,12 @@
       <c r="D8" s="1">
         <v>75</v>
       </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>71.458029639782254</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>24</v>
       </c>
@@ -3383,8 +4689,12 @@
       <c r="D9" s="1">
         <v>86</v>
       </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>81.547532151500448</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>27</v>
       </c>
@@ -3397,8 +4707,12 @@
       <c r="D10" s="1">
         <v>97</v>
       </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>91.651513899116793</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>30</v>
       </c>
@@ -3411,8 +4725,12 @@
       <c r="D11" s="1">
         <v>108</v>
       </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>101.7656621852381</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>33</v>
       </c>
@@ -3425,8 +4743,12 @@
       <c r="D12" s="1">
         <v>119</v>
       </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>111.94306588619055</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>36</v>
       </c>
@@ -3439,8 +4761,12 @@
       <c r="D13" s="1">
         <v>130</v>
       </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>122.11674741819813</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>39</v>
       </c>
@@ -3453,8 +4779,12 @@
       <c r="D14" s="1">
         <v>141</v>
       </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>132.33480267866045</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42</v>
       </c>
@@ -3467,8 +4797,12 @@
       <c r="D15" s="1">
         <v>152</v>
       </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>142.56577429383253</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45</v>
       </c>
@@ -3481,8 +4815,12 @@
       <c r="D16" s="1">
         <v>163</v>
       </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>152.80706789936124</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>48</v>
       </c>
@@ -3495,8 +4833,12 @@
       <c r="D17" s="1">
         <v>174</v>
       </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>163.07590257300433</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>51</v>
       </c>
@@ -3509,8 +4851,12 @@
       <c r="D18" s="1">
         <v>185</v>
       </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>173.34935823359714</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>54</v>
       </c>
@@ -3523,8 +4869,12 @@
       <c r="D19" s="1">
         <v>197</v>
       </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>183.64367672206956</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>57</v>
       </c>
@@ -3537,8 +4887,12 @@
       <c r="D20" s="1">
         <v>208</v>
       </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>193.95553614166315</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>60</v>
       </c>
@@ -3550,6 +4904,10 @@
       </c>
       <c r="D21" s="1">
         <v>219</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>204.28228019091623</v>
       </c>
     </row>
   </sheetData>
